--- a/WindowsFormsApp1/bin/Debug/System1.xlsx
+++ b/WindowsFormsApp1/bin/Debug/System1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krasnova\Desktop\Тимур\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetkin\Desktop\for_work_RouteMaps\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D581617C-8F99-4F3C-B3FB-E6EB41C93B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AEBE9D-8E21-4A5B-8735-3BF7B2B21576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>Скоба</t>
   </si>
@@ -112,22 +112,25 @@
     <t>40</t>
   </si>
   <si>
+    <t>Fam1</t>
+  </si>
+  <si>
+    <t>шу</t>
+  </si>
+  <si>
+    <t>Кузин</t>
+  </si>
+  <si>
+    <t>Пластина стопорная</t>
+  </si>
+  <si>
+    <t>ТА2215-312-000-001</t>
+  </si>
+  <si>
+    <t>30х43</t>
+  </si>
+  <si>
     <t>плазма</t>
-  </si>
-  <si>
-    <t>шу</t>
-  </si>
-  <si>
-    <t>Кузин</t>
-  </si>
-  <si>
-    <t>Пластина стопорная</t>
-  </si>
-  <si>
-    <t>ТА2215-312-000-001</t>
-  </si>
-  <si>
-    <t>30х43</t>
   </si>
   <si>
     <t>Шайба стопорная</t>
@@ -713,6 +716,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -745,27 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,58 +1052,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="5.28515625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1" style="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1" style="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1" style="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1" style="1"/>
+    <col min="1" max="1" bestFit="1" width="5.33203125" customWidth="1" style="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1" style="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1" style="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1" style="1"/>
     <col min="6" max="6" width="3" customWidth="1" style="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1" style="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1" style="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1" style="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1" style="1"/>
-    <col min="11" max="11" bestFit="1" width="8.7109375" customWidth="1" style="1"/>
-    <col min="12" max="12" bestFit="1" width="5.28515625" customWidth="1" style="1"/>
-    <col min="13" max="13" bestFit="1" width="10.42578125" customWidth="1" style="1"/>
-    <col min="14" max="22" width="9.140625" customWidth="1" style="1"/>
-    <col min="23" max="16384" width="9.140625" customWidth="1" style="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1" style="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1" style="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1" style="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1" style="1"/>
+    <col min="11" max="11" bestFit="1" width="8.6640625" customWidth="1" style="1"/>
+    <col min="12" max="12" bestFit="1" width="5.33203125" customWidth="1" style="1"/>
+    <col min="13" max="13" bestFit="1" width="10.44140625" customWidth="1" style="1"/>
+    <col min="14" max="25" width="9.109375" customWidth="1" style="1"/>
+    <col min="26" max="16384" width="9.109375" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L2" s="10"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="17"/>
       <c r="M2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1128,53 +1131,53 @@
       <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" ht="15.75">
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" ht="15.6">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="17">
+      <c r="E4" s="24">
         <v>3</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="20"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="27"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" ht="45.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1262,11 +1265,11 @@
     </row>
     <row r="10" ht="60" customHeight="1"/>
     <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1281,24 +1284,24 @@
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L12" s="10"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="17"/>
       <c r="M12" s="7" t="s">
         <v>5</v>
       </c>
@@ -1326,53 +1329,53 @@
       <c r="J13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" ht="15.75">
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" ht="15.6">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="17">
+      <c r="E14" s="24">
         <v>3</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="20"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
     </row>
     <row r="15" ht="45.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="27"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1393,11 +1396,11 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="8"/>
@@ -1414,7 +1417,7 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="8" t="s">
@@ -1460,11 +1463,11 @@
     </row>
     <row r="20" ht="60" customHeight="1"/>
     <row r="21">
-      <c r="A21" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1479,24 +1482,24 @@
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="A22" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="10"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" s="17"/>
       <c r="M22" s="7" t="s">
         <v>5</v>
       </c>
@@ -1524,53 +1527,53 @@
       <c r="J23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" ht="15.75">
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" ht="15.6">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="17">
+      <c r="E24" s="24">
         <v>3</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="20"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="27"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="16"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" ht="45.75" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="26" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="26" t="s">
+      <c r="G25" s="11"/>
+      <c r="H25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="27"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1591,11 +1594,11 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
@@ -1612,7 +1615,7 @@
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="8" t="s">
@@ -1658,11 +1661,11 @@
     </row>
     <row r="30" ht="60" customHeight="1"/>
     <row r="31">
-      <c r="A31" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="A31" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1677,26 +1680,26 @@
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="A32" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="L32" s="10"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" s="17"/>
       <c r="M32" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33">
@@ -1722,53 +1725,53 @@
       <c r="J33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
-    </row>
-    <row r="34" ht="15.75">
+      <c r="L33" s="19"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" ht="15.6">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="17">
+      <c r="E34" s="24">
         <v>3</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" s="20"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="27"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23"/>
     </row>
     <row r="35" ht="45" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="26" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="26" t="s">
+      <c r="G35" s="11"/>
+      <c r="H35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="27"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="4" t="s">
         <v>20</v>
       </c>
@@ -1789,11 +1792,11 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="8"/>
@@ -1810,7 +1813,7 @@
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="8" t="s">
@@ -1856,14 +1859,113 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
@@ -1880,115 +1982,21 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:J32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:G6" xr:uid="{D06516F4-117C-4366-B64B-409F305C1F3E}">
+      <formula1>"Fam1,Fam2,Fam3,Fam4,Fam5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.11811023622047245" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
